--- a/public/assets/csk_initial_data.xlsx
+++ b/public/assets/csk_initial_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\OneDrive - Concordia University - Canada\Documents\github\csk-share-replica-nextjs\csk-share-replica-nextjs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234F4BF2-3F87-4A4C-91D8-FEC9D80F010E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45797523-9E8F-46F4-8045-AB076E816CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Share_Price" sheetId="6" r:id="rId1"/>
@@ -1624,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32138F46-A3E8-496E-9400-1A0AA9693BDB}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1652,16 +1652,16 @@
         <v>102</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5919</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4133</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>7053</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>27916</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1669,16 +1669,16 @@
         <v>103</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6193</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5273</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6512</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>26360</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2154,7 +2154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
